--- a/PythonResources/Data/Consumption/Sympheny/post_1380_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1380_hea.xlsx
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>84.44460986676405</v>
+        <v>84.44460986676404</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>60.86001110153095</v>
+        <v>60.86001110153094</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -647,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>55.5630451487658</v>
+        <v>55.56304514876579</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>127.1837455768254</v>
+        <v>127.1837455768253</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -735,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>156.5948896616847</v>
+        <v>156.5948896616846</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -911,7 +911,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.750261858973044</v>
+        <v>0.7502618589730439</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -951,7 +951,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>10.5948111186463</v>
+        <v>10.59481111864629</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>14.93800668319197</v>
+        <v>14.93800668319196</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>4.324761396213875</v>
+        <v>4.324761396213874</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>85.35723308115548</v>
+        <v>85.35723308115547</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>6.870347130922453</v>
+        <v>6.870347130922452</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>46.35328775883302</v>
+        <v>46.35328775883301</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>244.3629251068684</v>
+        <v>244.3629251068683</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>205.8281865174428</v>
+        <v>205.8281865174427</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>183.5260666173917</v>
+        <v>183.5260666173916</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>184.9832158216159</v>
+        <v>184.9832158216158</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>184.3745072743163</v>
+        <v>184.3745072743162</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>47.4945063833803</v>
+        <v>47.49450638338029</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>57.00788536936623</v>
+        <v>57.00788536936622</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>73.65519957844663</v>
+        <v>73.65519957844661</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>60.25833625915921</v>
+        <v>60.2583362591592</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>227.3607018699691</v>
+        <v>227.360701869969</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>45.29119831472431</v>
+        <v>45.2911983147243</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>18.98933280033481</v>
+        <v>18.9893328003348</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>134.1066696520837</v>
+        <v>134.1066696520836</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>129.1232897106862</v>
+        <v>129.1232897106861</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>0.4878313974037423</v>
+        <v>0.4878313974037422</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>0.0981535938422258</v>
+        <v>0.0981535938422257</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>12.70533289646211</v>
+        <v>12.7053328964621</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>6.823133386594111</v>
+        <v>6.82313338659411</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>165.0675733893842</v>
+        <v>165.0675733893841</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>62.84205053599763</v>
+        <v>62.84205053599762</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>78.17230349733394</v>
+        <v>78.17230349733393</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>39.78292814308432</v>
+        <v>39.78292814308431</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>217.2468203257661</v>
+        <v>217.246820325766</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>223.1900079187795</v>
+        <v>223.1900079187794</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>240.7001232656789</v>
+        <v>240.7001232656788</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>85.77720387955719</v>
+        <v>85.77720387955718</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>143.930410868012</v>
+        <v>143.9304108680119</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>388.9199218555383</v>
+        <v>388.9199218555382</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>395.4700595696194</v>
+        <v>395.4700595696193</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>390.810230054904</v>
+        <v>390.8102300549039</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>59.06876091323281</v>
+        <v>59.0687609132328</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>110.0815851157426</v>
+        <v>110.0815851157425</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>233.6171824033115</v>
+        <v>233.6171824033114</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>498</v>
       </c>
       <c r="B498">
-        <v>187.125858185269</v>
+        <v>187.1258581852689</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>364.6507091439923</v>
+        <v>364.6507091439922</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>275.4202492158885</v>
+        <v>275.4202492158884</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>269.9638526180916</v>
+        <v>269.9638526180915</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>406.4690156505797</v>
+        <v>406.4690156505796</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>284.3817754360751</v>
+        <v>284.381775436075</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>575</v>
       </c>
       <c r="B575">
-        <v>282.6312621221509</v>
+        <v>282.6312621221508</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>577</v>
       </c>
       <c r="B577">
-        <v>315.0191287466935</v>
+        <v>315.0191287466934</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>168.71367018137</v>
+        <v>168.7136701813699</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>212.6218662646514</v>
+        <v>212.6218662646513</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>122.3155425536218</v>
+        <v>122.3155425536217</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>66.40462208196494</v>
+        <v>66.40462208196493</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>45.74956141919065</v>
+        <v>45.74956141919064</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>249.086644108012</v>
+        <v>249.0866441080119</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>141.4480991705504</v>
+        <v>141.4480991705503</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>645</v>
       </c>
       <c r="B645">
-        <v>332.9550763127678</v>
+        <v>332.9550763127677</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>656</v>
       </c>
       <c r="B656">
-        <v>234.1587776827577</v>
+        <v>234.1587776827576</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>664</v>
       </c>
       <c r="B664">
-        <v>97.41183104337394</v>
+        <v>97.41183104337392</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>673</v>
       </c>
       <c r="B673">
-        <v>345.6069530517781</v>
+        <v>345.606953051778</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>718</v>
       </c>
       <c r="B718">
-        <v>261.3006727152622</v>
+        <v>261.3006727152621</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>732</v>
       </c>
       <c r="B732">
-        <v>81.31636960009286</v>
+        <v>81.31636960009284</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>341.5948105325043</v>
+        <v>341.5948105325042</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>763</v>
       </c>
       <c r="B763">
-        <v>260.3083341783549</v>
+        <v>260.3083341783548</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>209.9314741297403</v>
+        <v>209.9314741297402</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>229.4875183975345</v>
+        <v>229.4875183975344</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6799,7 +6799,7 @@
         <v>807</v>
       </c>
       <c r="B807">
-        <v>240.1133950462789</v>
+        <v>240.1133950462788</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>823</v>
       </c>
       <c r="B823">
-        <v>411.9465133631602</v>
+        <v>411.9465133631601</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>824</v>
       </c>
       <c r="B824">
-        <v>247.3182534607294</v>
+        <v>247.3182534607293</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>843</v>
       </c>
       <c r="B843">
-        <v>459.8665588946768</v>
+        <v>459.8665588946767</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>348.6578225642427</v>
+        <v>348.6578225642426</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>87.8257704398</v>
+        <v>87.82577043979998</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7391,7 +7391,7 @@
         <v>881</v>
       </c>
       <c r="B881">
-        <v>75.92562091495607</v>
+        <v>75.92562091495606</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>884</v>
       </c>
       <c r="B884">
-        <v>289.6048874870976</v>
+        <v>289.6048874870975</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>889</v>
       </c>
       <c r="B889">
-        <v>344.0360922845533</v>
+        <v>344.0360922845532</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>358.3848503374128</v>
+        <v>358.3848503374127</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>225.9340320537657</v>
+        <v>225.9340320537656</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7775,7 +7775,7 @@
         <v>929</v>
       </c>
       <c r="B929">
-        <v>97.62108376497814</v>
+        <v>97.62108376497812</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>938</v>
       </c>
       <c r="B938">
-        <v>173.3658798490802</v>
+        <v>173.3658798490801</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>946</v>
       </c>
       <c r="B946">
-        <v>22.82683428767033</v>
+        <v>22.82683428767032</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>62.75764607686316</v>
+        <v>62.75764607686315</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>73.96849251877561</v>
+        <v>73.96849251877559</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8271,7 +8271,7 @@
         <v>991</v>
       </c>
       <c r="B991">
-        <v>67.44385198505807</v>
+        <v>67.44385198505806</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>0.9145985131920068</v>
+        <v>0.9145985131920066</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>0.7850611141036921</v>
+        <v>0.7850611141036919</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>1019</v>
       </c>
       <c r="B1019">
-        <v>88.30201087762468</v>
+        <v>88.30201087762467</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>1029</v>
       </c>
       <c r="B1029">
-        <v>228.6947612379556</v>
+        <v>228.6947612379555</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>1031</v>
       </c>
       <c r="B1031">
-        <v>251.5311496414863</v>
+        <v>251.5311496414862</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>1036</v>
       </c>
       <c r="B1036">
-        <v>341.8556437569129</v>
+        <v>341.8556437569128</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>1050</v>
       </c>
       <c r="B1050">
-        <v>84.05248081703517</v>
+        <v>84.05248081703516</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>209.3479696917655</v>
+        <v>209.3479696917654</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>1070</v>
       </c>
       <c r="B1070">
-        <v>4.170606029878007</v>
+        <v>4.170606029878006</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>1089</v>
       </c>
       <c r="B1089">
-        <v>57.76166408080321</v>
+        <v>57.7616640808032</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>258.7008395312974</v>
+        <v>258.7008395312973</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>352.7285792912488</v>
+        <v>352.7285792912487</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>1145</v>
       </c>
       <c r="B1145">
-        <v>158.0930688113215</v>
+        <v>158.0930688113214</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9567,7 +9567,7 @@
         <v>1153</v>
       </c>
       <c r="B1153">
-        <v>282.1931209193522</v>
+        <v>282.1931209193521</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -9639,7 +9639,7 @@
         <v>1162</v>
       </c>
       <c r="B1162">
-        <v>93.9981395850466</v>
+        <v>93.99813958504656</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -9719,7 +9719,7 @@
         <v>1172</v>
       </c>
       <c r="B1172">
-        <v>249.101297659945</v>
+        <v>249.1012976599449</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -9767,7 +9767,7 @@
         <v>1178</v>
       </c>
       <c r="B1178">
-        <v>269.0195777315247</v>
+        <v>269.0195777315246</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>166.3808247136257</v>
+        <v>166.3808247136256</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10127,7 +10127,7 @@
         <v>1223</v>
       </c>
       <c r="B1223">
-        <v>38.27478457813304</v>
+        <v>38.27478457813303</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>63.52197534569195</v>
+        <v>63.52197534569194</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10383,7 +10383,7 @@
         <v>1255</v>
       </c>
       <c r="B1255">
-        <v>60.07516685999587</v>
+        <v>60.07516685999586</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>1259</v>
       </c>
       <c r="B1259">
-        <v>6.08497536151778</v>
+        <v>6.084975361517779</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10535,7 +10535,7 @@
         <v>1274</v>
       </c>
       <c r="B1274">
-        <v>74.88052959108971</v>
+        <v>74.8805295910897</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>85.41819185719704</v>
+        <v>85.41819185719703</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10631,7 +10631,7 @@
         <v>1286</v>
       </c>
       <c r="B1286">
-        <v>8.505654219548894</v>
+        <v>8.505654219548893</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>1287</v>
       </c>
       <c r="B1287">
-        <v>7.171419008939254</v>
+        <v>7.171419008939253</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>40.90392486596397</v>
+        <v>40.90392486596396</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>1304</v>
       </c>
       <c r="B1304">
-        <v>2.104346771031218</v>
+        <v>2.104346771031217</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -10951,7 +10951,7 @@
         <v>1326</v>
       </c>
       <c r="B1326">
-        <v>94.40609447086318</v>
+        <v>94.40609447086317</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -11103,7 +11103,7 @@
         <v>1345</v>
       </c>
       <c r="B1345">
-        <v>7.430347271596553</v>
+        <v>7.430347271596552</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>86.41697795695491</v>
+        <v>86.4169779569549</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>95.28970365242714</v>
+        <v>95.28970365242712</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>92.62773940826614</v>
+        <v>92.62773940826612</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11703,7 +11703,7 @@
         <v>1420</v>
       </c>
       <c r="B1420">
-        <v>216.3004939419286</v>
+        <v>216.3004939419285</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
@@ -11807,7 +11807,7 @@
         <v>1433</v>
       </c>
       <c r="B1433">
-        <v>52.89844326525685</v>
+        <v>52.89844326525684</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -12007,7 +12007,7 @@
         <v>1458</v>
       </c>
       <c r="B1458">
-        <v>80.8216656868325</v>
+        <v>80.82166568683249</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>234.8114468858565</v>
+        <v>234.8114468858564</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12071,7 +12071,7 @@
         <v>1466</v>
       </c>
       <c r="B1466">
-        <v>288.1005538456489</v>
+        <v>288.1005538456488</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12119,7 +12119,7 @@
         <v>1472</v>
       </c>
       <c r="B1472">
-        <v>89.53789144765958</v>
+        <v>89.53789144765956</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -12127,7 +12127,7 @@
         <v>1473</v>
       </c>
       <c r="B1473">
-        <v>91.20106959206272</v>
+        <v>91.20106959206269</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>51.16316964534302</v>
+        <v>51.16316964534301</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>39.87993465688123</v>
+        <v>39.87993465688122</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12247,7 +12247,7 @@
         <v>1488</v>
       </c>
       <c r="B1488">
-        <v>249.1528781627494</v>
+        <v>249.1528781627493</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>277.0212963000954</v>
+        <v>277.0212963000953</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>306.6314356202058</v>
+        <v>306.6314356202057</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12391,7 +12391,7 @@
         <v>1506</v>
       </c>
       <c r="B1506">
-        <v>19.52453913113816</v>
+        <v>19.52453913113815</v>
       </c>
     </row>
     <row r="1507" spans="1:2">
@@ -12431,7 +12431,7 @@
         <v>1511</v>
       </c>
       <c r="B1511">
-        <v>152.2612482129994</v>
+        <v>152.2612482129993</v>
       </c>
     </row>
     <row r="1512" spans="1:2">
@@ -12559,7 +12559,7 @@
         <v>1527</v>
       </c>
       <c r="B1527">
-        <v>17.95526094752212</v>
+        <v>17.95526094752211</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
@@ -12591,7 +12591,7 @@
         <v>1531</v>
       </c>
       <c r="B1531">
-        <v>86.78595439462954</v>
+        <v>86.78595439462953</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -12687,7 +12687,7 @@
         <v>1543</v>
       </c>
       <c r="B1543">
-        <v>239.4607258431801</v>
+        <v>239.46072584318</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -13055,7 +13055,7 @@
         <v>1589</v>
       </c>
       <c r="B1589">
-        <v>30.23760441388431</v>
+        <v>30.2376044138843</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
@@ -13095,7 +13095,7 @@
         <v>1594</v>
       </c>
       <c r="B1594">
-        <v>29.58405599766951</v>
+        <v>29.5840559976695</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>90.06981538282992</v>
+        <v>90.0698153828299</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13327,7 +13327,7 @@
         <v>1623</v>
       </c>
       <c r="B1623">
-        <v>44.6361845433162</v>
+        <v>44.63618454331619</v>
       </c>
     </row>
     <row r="1624" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>59.37443400655659</v>
+        <v>59.37443400655658</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>213.7879959274849</v>
+        <v>213.7879959274848</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>29.82877031495173</v>
+        <v>29.82877031495172</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13543,7 +13543,7 @@
         <v>1650</v>
       </c>
       <c r="B1650">
-        <v>30.06439943003545</v>
+        <v>30.06439943003544</v>
       </c>
     </row>
     <row r="1651" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>251.1525018595358</v>
+        <v>251.1525018595357</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>257.8321769727052</v>
+        <v>257.8321769727051</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13647,7 +13647,7 @@
         <v>1663</v>
       </c>
       <c r="B1663">
-        <v>71.98674615534759</v>
+        <v>71.98674615534757</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
@@ -13679,7 +13679,7 @@
         <v>1667</v>
       </c>
       <c r="B1667">
-        <v>13.30694912462612</v>
+        <v>13.30694912462611</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>8.756669564162337</v>
+        <v>8.756669564162335</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13719,7 +13719,7 @@
         <v>1672</v>
       </c>
       <c r="B1672">
-        <v>13.29094744591521</v>
+        <v>13.2909474459152</v>
       </c>
     </row>
     <row r="1673" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>4.037229400183229</v>
+        <v>4.037229400183228</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>49.68550546841252</v>
+        <v>49.68550546841251</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -14007,7 +14007,7 @@
         <v>1708</v>
       </c>
       <c r="B1708">
-        <v>195.165382917827</v>
+        <v>195.1653829178269</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>44.92661794262959</v>
+        <v>44.92661794262958</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14119,7 +14119,7 @@
         <v>1722</v>
       </c>
       <c r="B1722">
-        <v>48.00679455896033</v>
+        <v>48.00679455896032</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14239,7 +14239,7 @@
         <v>1737</v>
       </c>
       <c r="B1737">
-        <v>52.66662407367572</v>
+        <v>52.66662407367571</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>33.46460962058438</v>
+        <v>33.46460962058437</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14431,7 +14431,7 @@
         <v>1761</v>
       </c>
       <c r="B1761">
-        <v>61.36438635906713</v>
+        <v>61.36438635906712</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>142.3481203302794</v>
+        <v>142.3481203302793</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14647,7 +14647,7 @@
         <v>1788</v>
       </c>
       <c r="B1788">
-        <v>20.91914697571204</v>
+        <v>20.91914697571203</v>
       </c>
     </row>
     <row r="1789" spans="1:2">
@@ -14719,7 +14719,7 @@
         <v>1797</v>
       </c>
       <c r="B1797">
-        <v>86.60249192442754</v>
+        <v>86.60249192442753</v>
       </c>
     </row>
     <row r="1798" spans="1:2">
@@ -14727,7 +14727,7 @@
         <v>1798</v>
       </c>
       <c r="B1798">
-        <v>101.2897470269409</v>
+        <v>101.2897470269408</v>
       </c>
     </row>
     <row r="1799" spans="1:2">
@@ -14751,7 +14751,7 @@
         <v>1801</v>
       </c>
       <c r="B1801">
-        <v>173.5804078493803</v>
+        <v>173.5804078493802</v>
       </c>
     </row>
     <row r="1802" spans="1:2">
@@ -14863,7 +14863,7 @@
         <v>1815</v>
       </c>
       <c r="B1815">
-        <v>33.50798413430626</v>
+        <v>33.50798413430625</v>
       </c>
     </row>
     <row r="1816" spans="1:2">
@@ -14871,7 +14871,7 @@
         <v>1816</v>
       </c>
       <c r="B1816">
-        <v>27.75983531752196</v>
+        <v>27.75983531752195</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>242.7017984597359</v>
+        <v>242.7017984597358</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -14975,7 +14975,7 @@
         <v>1829</v>
       </c>
       <c r="B1829">
-        <v>260.6204548345292</v>
+        <v>260.6204548345291</v>
       </c>
     </row>
     <row r="1830" spans="1:2">
@@ -14999,7 +14999,7 @@
         <v>1832</v>
       </c>
       <c r="B1832">
-        <v>42.29513308648937</v>
+        <v>42.29513308648936</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>174.4288485063049</v>
+        <v>174.4288485063048</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15223,7 +15223,7 @@
         <v>1860</v>
       </c>
       <c r="B1860">
-        <v>4.437242060852099</v>
+        <v>4.437242060852098</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -15311,7 +15311,7 @@
         <v>1871</v>
       </c>
       <c r="B1871">
-        <v>39.71434952003757</v>
+        <v>39.71434952003756</v>
       </c>
     </row>
     <row r="1872" spans="1:2">
@@ -15367,7 +15367,7 @@
         <v>1878</v>
       </c>
       <c r="B1878">
-        <v>119.1615120355484</v>
+        <v>119.1615120355483</v>
       </c>
     </row>
     <row r="1879" spans="1:2">
@@ -15391,7 +15391,7 @@
         <v>1881</v>
       </c>
       <c r="B1881">
-        <v>20.12882230575398</v>
+        <v>20.12882230575397</v>
       </c>
     </row>
     <row r="1882" spans="1:2">
@@ -15399,7 +15399,7 @@
         <v>1882</v>
       </c>
       <c r="B1882">
-        <v>22.30443516125648</v>
+        <v>22.30443516125647</v>
       </c>
     </row>
     <row r="1883" spans="1:2">
@@ -15423,7 +15423,7 @@
         <v>1885</v>
       </c>
       <c r="B1885">
-        <v>21.53908014379238</v>
+        <v>21.53908014379237</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>8.992855514219515</v>
+        <v>8.992855514219514</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15591,7 +15591,7 @@
         <v>1906</v>
       </c>
       <c r="B1906">
-        <v>17.45211658834832</v>
+        <v>17.45211658834831</v>
       </c>
     </row>
     <row r="1907" spans="1:2">
@@ -15631,7 +15631,7 @@
         <v>1911</v>
       </c>
       <c r="B1911">
-        <v>3.740113981188357</v>
+        <v>3.740113981188356</v>
       </c>
     </row>
     <row r="1912" spans="1:2">
@@ -15783,7 +15783,7 @@
         <v>1930</v>
       </c>
       <c r="B1930">
-        <v>19.78581196210475</v>
+        <v>19.78581196210474</v>
       </c>
     </row>
     <row r="1931" spans="1:2">
@@ -15999,7 +15999,7 @@
         <v>1957</v>
       </c>
       <c r="B1957">
-        <v>44.05297317638012</v>
+        <v>44.05297317638011</v>
       </c>
     </row>
     <row r="1958" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>41.64510152273851</v>
+        <v>41.6451015227385</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16023,7 +16023,7 @@
         <v>1960</v>
       </c>
       <c r="B1960">
-        <v>46.81194393433803</v>
+        <v>46.81194393433802</v>
       </c>
     </row>
     <row r="1961" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>42.90882384144623</v>
+        <v>42.90882384144622</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16767,7 +16767,7 @@
         <v>2053</v>
       </c>
       <c r="B2053">
-        <v>39.543489104498</v>
+        <v>39.54348910449799</v>
       </c>
     </row>
     <row r="2054" spans="1:2">
@@ -16871,7 +16871,7 @@
         <v>2066</v>
       </c>
       <c r="B2066">
-        <v>170.4263773313069</v>
+        <v>170.4263773313068</v>
       </c>
     </row>
     <row r="2067" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>98.08530829021772</v>
+        <v>98.0853082902177</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17399,7 +17399,7 @@
         <v>2132</v>
       </c>
       <c r="B2132">
-        <v>3.22020595860313</v>
+        <v>3.220205958603129</v>
       </c>
     </row>
     <row r="2133" spans="1:2">
@@ -17431,7 +17431,7 @@
         <v>2136</v>
       </c>
       <c r="B2136">
-        <v>73.71938213591346</v>
+        <v>73.71938213591345</v>
       </c>
     </row>
     <row r="2137" spans="1:2">
@@ -17471,7 +17471,7 @@
         <v>2141</v>
       </c>
       <c r="B2141">
-        <v>146.812178391169</v>
+        <v>146.8121783911689</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -17503,7 +17503,7 @@
         <v>2145</v>
       </c>
       <c r="B2145">
-        <v>17.36146971609037</v>
+        <v>17.36146971609036</v>
       </c>
     </row>
     <row r="2146" spans="1:2">
@@ -17791,7 +17791,7 @@
         <v>2181</v>
       </c>
       <c r="B2181">
-        <v>34.89157250782647</v>
+        <v>34.89157250782646</v>
       </c>
     </row>
     <row r="2182" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>3.242127672294999</v>
+        <v>3.242127672294998</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>80.13675866948094</v>
+        <v>80.13675866948093</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18399,7 +18399,7 @@
         <v>2257</v>
       </c>
       <c r="B2257">
-        <v>4.820930664667532</v>
+        <v>4.820930664667531</v>
       </c>
     </row>
     <row r="2258" spans="1:2">
@@ -18423,7 +18423,7 @@
         <v>2260</v>
       </c>
       <c r="B2260">
-        <v>22.36304936898875</v>
+        <v>22.36304936898874</v>
       </c>
     </row>
     <row r="2261" spans="1:2">
@@ -18591,7 +18591,7 @@
         <v>2281</v>
       </c>
       <c r="B2281">
-        <v>38.95236481951807</v>
+        <v>38.95236481951806</v>
       </c>
     </row>
     <row r="2282" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>65.09049154460747</v>
+        <v>65.09049154460746</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18631,7 +18631,7 @@
         <v>2286</v>
       </c>
       <c r="B2286">
-        <v>47.06398502758678</v>
+        <v>47.06398502758677</v>
       </c>
     </row>
     <row r="2287" spans="1:2">
@@ -18815,7 +18815,7 @@
         <v>2309</v>
       </c>
       <c r="B2309">
-        <v>0.6389505477790784</v>
+        <v>0.6389505477790783</v>
       </c>
     </row>
     <row r="2310" spans="1:2">
@@ -18983,7 +18983,7 @@
         <v>2330</v>
       </c>
       <c r="B2330">
-        <v>64.86863676834083</v>
+        <v>64.86863676834082</v>
       </c>
     </row>
     <row r="2331" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>4.395567359154455</v>
+        <v>4.395567359154454</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19031,7 +19031,7 @@
         <v>2336</v>
       </c>
       <c r="B2336">
-        <v>4.827407534621948</v>
+        <v>4.827407534621947</v>
       </c>
     </row>
     <row r="2337" spans="1:2">
@@ -19199,7 +19199,7 @@
         <v>2357</v>
       </c>
       <c r="B2357">
-        <v>168.8660671214739</v>
+        <v>168.8660671214738</v>
       </c>
     </row>
     <row r="2358" spans="1:2">
@@ -19319,7 +19319,7 @@
         <v>2372</v>
       </c>
       <c r="B2372">
-        <v>83.10996435670029</v>
+        <v>83.10996435670027</v>
       </c>
     </row>
     <row r="2373" spans="1:2">
@@ -19415,7 +19415,7 @@
         <v>2384</v>
       </c>
       <c r="B2384">
-        <v>52.62061192060589</v>
+        <v>52.62061192060588</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>27.62777750750116</v>
+        <v>27.62777750750115</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19647,7 +19647,7 @@
         <v>2413</v>
       </c>
       <c r="B2413">
-        <v>12.39699285668651</v>
+        <v>12.3969928566865</v>
       </c>
     </row>
     <row r="2414" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>15.20487717099699</v>
+        <v>15.20487717099698</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19743,7 +19743,7 @@
         <v>2425</v>
       </c>
       <c r="B2425">
-        <v>108.9556061852057</v>
+        <v>108.9556061852056</v>
       </c>
     </row>
     <row r="2426" spans="1:2">
@@ -19791,7 +19791,7 @@
         <v>2431</v>
       </c>
       <c r="B2431">
-        <v>6.342467576085639</v>
+        <v>6.342467576085638</v>
       </c>
     </row>
     <row r="2432" spans="1:2">
@@ -19823,7 +19823,7 @@
         <v>2435</v>
       </c>
       <c r="B2435">
-        <v>0.4663375674283193</v>
+        <v>0.4663375674283192</v>
       </c>
     </row>
     <row r="2436" spans="1:2">
@@ -20119,7 +20119,7 @@
         <v>2472</v>
       </c>
       <c r="B2472">
-        <v>80.75338013482441</v>
+        <v>80.7533801348244</v>
       </c>
     </row>
     <row r="2473" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>5.659406906277641</v>
+        <v>5.65940690627764</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20303,7 +20303,7 @@
         <v>2495</v>
       </c>
       <c r="B2495">
-        <v>90.19759435568626</v>
+        <v>90.19759435568623</v>
       </c>
     </row>
     <row r="2496" spans="1:2">
@@ -20335,7 +20335,7 @@
         <v>2499</v>
       </c>
       <c r="B2499">
-        <v>163.5421386331519</v>
+        <v>163.5421386331518</v>
       </c>
     </row>
     <row r="2500" spans="1:2">
@@ -20543,7 +20543,7 @@
         <v>2525</v>
       </c>
       <c r="B2525">
-        <v>162.7262288615187</v>
+        <v>162.7262288615186</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20759,7 +20759,7 @@
         <v>2552</v>
       </c>
       <c r="B2552">
-        <v>1.765729562251513</v>
+        <v>1.765729562251512</v>
       </c>
     </row>
     <row r="2553" spans="1:2">
@@ -20831,7 +20831,7 @@
         <v>2561</v>
       </c>
       <c r="B2561">
-        <v>5.546076335627299</v>
+        <v>5.546076335627298</v>
       </c>
     </row>
     <row r="2562" spans="1:2">
@@ -21015,7 +21015,7 @@
         <v>2584</v>
       </c>
       <c r="B2584">
-        <v>7.482425995166673</v>
+        <v>7.482425995166672</v>
       </c>
     </row>
     <row r="2585" spans="1:2">
@@ -21159,7 +21159,7 @@
         <v>2602</v>
       </c>
       <c r="B2602">
-        <v>7.437674047563086</v>
+        <v>7.437674047563085</v>
       </c>
     </row>
     <row r="2603" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>3.697149766920604</v>
+        <v>3.697149766920603</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21263,7 +21263,7 @@
         <v>2615</v>
       </c>
       <c r="B2615">
-        <v>21.65331923466257</v>
+        <v>21.65331923466256</v>
       </c>
     </row>
     <row r="2616" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>60.25628476188858</v>
+        <v>60.25628476188857</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21471,7 +21471,7 @@
         <v>2641</v>
       </c>
       <c r="B2641">
-        <v>96.77322925013088</v>
+        <v>96.77322925013084</v>
       </c>
     </row>
     <row r="2642" spans="1:2">
@@ -21527,7 +21527,7 @@
         <v>2648</v>
       </c>
       <c r="B2648">
-        <v>6.548584437576163</v>
+        <v>6.548584437576162</v>
       </c>
     </row>
     <row r="2649" spans="1:2">
@@ -21599,7 +21599,7 @@
         <v>2657</v>
       </c>
       <c r="B2657">
-        <v>5.90892758859391</v>
+        <v>5.908927588593909</v>
       </c>
     </row>
     <row r="2658" spans="1:2">
@@ -21607,7 +21607,7 @@
         <v>2658</v>
       </c>
       <c r="B2658">
-        <v>37.1590631339493</v>
+        <v>37.15906313394929</v>
       </c>
     </row>
     <row r="2659" spans="1:2">
@@ -21623,7 +21623,7 @@
         <v>2660</v>
       </c>
       <c r="B2660">
-        <v>50.64384776483512</v>
+        <v>50.64384776483511</v>
       </c>
     </row>
     <row r="2661" spans="1:2">
@@ -21631,7 +21631,7 @@
         <v>2661</v>
       </c>
       <c r="B2661">
-        <v>53.47901699284497</v>
+        <v>53.47901699284496</v>
       </c>
     </row>
     <row r="2662" spans="1:2">
@@ -21647,7 +21647,7 @@
         <v>2663</v>
       </c>
       <c r="B2663">
-        <v>88.53851920582439</v>
+        <v>88.53851920582437</v>
       </c>
     </row>
     <row r="2664" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>96.52822186180998</v>
+        <v>96.52822186180995</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21743,7 +21743,7 @@
         <v>2675</v>
       </c>
       <c r="B2675">
-        <v>0.8221492540462854</v>
+        <v>0.8221492540462852</v>
       </c>
     </row>
     <row r="2676" spans="1:2">
@@ -21887,7 +21887,7 @@
         <v>2693</v>
       </c>
       <c r="B2693">
-        <v>99.7921540193814</v>
+        <v>99.79215401938136</v>
       </c>
     </row>
     <row r="2694" spans="1:2">
@@ -21991,7 +21991,7 @@
         <v>2706</v>
       </c>
       <c r="B2706">
-        <v>94.19684174925898</v>
+        <v>94.19684174925897</v>
       </c>
     </row>
     <row r="2707" spans="1:2">
@@ -22127,7 +22127,7 @@
         <v>2723</v>
       </c>
       <c r="B2723">
-        <v>7.161073601274508</v>
+        <v>7.161073601274507</v>
       </c>
     </row>
     <row r="2724" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>74.42011498935274</v>
+        <v>74.42011498935273</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>5.426737808684399</v>
+        <v>5.426737808684398</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22447,7 +22447,7 @@
         <v>2763</v>
       </c>
       <c r="B2763">
-        <v>54.05988379147176</v>
+        <v>54.05988379147175</v>
       </c>
     </row>
     <row r="2764" spans="1:2">
@@ -22607,7 +22607,7 @@
         <v>2783</v>
       </c>
       <c r="B2783">
-        <v>20.59676883318456</v>
+        <v>20.59676883318455</v>
       </c>
     </row>
     <row r="2784" spans="1:2">
@@ -22807,7 +22807,7 @@
         <v>2808</v>
       </c>
       <c r="B2808">
-        <v>44.33842436803627</v>
+        <v>44.33842436803626</v>
       </c>
     </row>
     <row r="2809" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>36.03279113237375</v>
+        <v>36.03279113237374</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -22983,7 +22983,7 @@
         <v>2830</v>
       </c>
       <c r="B2830">
-        <v>3.541470431183697</v>
+        <v>3.541470431183696</v>
       </c>
     </row>
     <row r="2831" spans="1:2">
@@ -23007,7 +23007,7 @@
         <v>2833</v>
       </c>
       <c r="B2833">
-        <v>51.83606075010947</v>
+        <v>51.83606075010946</v>
       </c>
     </row>
     <row r="2834" spans="1:2">
@@ -23191,7 +23191,7 @@
         <v>2856</v>
       </c>
       <c r="B2856">
-        <v>32.19092288656217</v>
+        <v>32.19092288656216</v>
       </c>
     </row>
     <row r="2857" spans="1:2">
@@ -23407,7 +23407,7 @@
         <v>2883</v>
       </c>
       <c r="B2883">
-        <v>51.51221725238868</v>
+        <v>51.51221725238867</v>
       </c>
     </row>
     <row r="2884" spans="1:2">
@@ -23959,7 +23959,7 @@
         <v>2952</v>
       </c>
       <c r="B2952">
-        <v>48.16505291983746</v>
+        <v>48.16505291983745</v>
       </c>
     </row>
     <row r="2953" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>3.178707099528684</v>
+        <v>3.178707099528683</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24111,7 +24111,7 @@
         <v>2971</v>
       </c>
       <c r="B2971">
-        <v>0.1235168407410946</v>
+        <v>0.1235168407410945</v>
       </c>
     </row>
     <row r="2972" spans="1:2">
@@ -24183,7 +24183,7 @@
         <v>2980</v>
       </c>
       <c r="B2980">
-        <v>89.58566202696137</v>
+        <v>89.58566202696136</v>
       </c>
     </row>
     <row r="2981" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>3053</v>
       </c>
       <c r="B3053">
-        <v>0.3096500673184176</v>
+        <v>0.3096500673184175</v>
       </c>
     </row>
     <row r="3054" spans="1:2">
@@ -25535,7 +25535,7 @@
         <v>3149</v>
       </c>
       <c r="B3149">
-        <v>18.87872779034402</v>
+        <v>18.87872779034401</v>
       </c>
     </row>
     <row r="3150" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>3.295994129200954</v>
+        <v>3.295994129200953</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>3243</v>
       </c>
       <c r="B3243">
-        <v>55.71837279925631</v>
+        <v>55.7183727992563</v>
       </c>
     </row>
     <row r="3244" spans="1:2">
@@ -26839,7 +26839,7 @@
         <v>3312</v>
       </c>
       <c r="B3312">
-        <v>68.52733561498907</v>
+        <v>68.52733561498906</v>
       </c>
     </row>
     <row r="3313" spans="1:2">
@@ -26903,7 +26903,7 @@
         <v>3320</v>
       </c>
       <c r="B3320">
-        <v>5.289609869694756</v>
+        <v>5.289609869694755</v>
       </c>
     </row>
     <row r="3321" spans="1:2">
@@ -27087,7 +27087,7 @@
         <v>3343</v>
       </c>
       <c r="B3343">
-        <v>4.771020666783505</v>
+        <v>4.771020666783504</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -27095,7 +27095,7 @@
         <v>3344</v>
       </c>
       <c r="B3344">
-        <v>1.753051309119023</v>
+        <v>1.753051309119022</v>
       </c>
     </row>
     <row r="3345" spans="1:2">
@@ -27199,7 +27199,7 @@
         <v>3357</v>
       </c>
       <c r="B3357">
-        <v>5.363082779087154</v>
+        <v>5.363082779087153</v>
       </c>
     </row>
     <row r="3358" spans="1:2">
@@ -27215,7 +27215,7 @@
         <v>3359</v>
       </c>
       <c r="B3359">
-        <v>46.54935228369746</v>
+        <v>46.54935228369745</v>
       </c>
     </row>
     <row r="3360" spans="1:2">
@@ -27295,7 +27295,7 @@
         <v>3369</v>
       </c>
       <c r="B3369">
-        <v>5.717845271386713</v>
+        <v>5.717845271386712</v>
       </c>
     </row>
     <row r="3370" spans="1:2">
@@ -27391,7 +27391,7 @@
         <v>3381</v>
       </c>
       <c r="B3381">
-        <v>1.00972937234148</v>
+        <v>1.009729372341479</v>
       </c>
     </row>
     <row r="3382" spans="1:2">
@@ -27631,7 +27631,7 @@
         <v>3411</v>
       </c>
       <c r="B3411">
-        <v>86.47793673299647</v>
+        <v>86.47793673299645</v>
       </c>
     </row>
     <row r="3412" spans="1:2">
@@ -28215,7 +28215,7 @@
         <v>3484</v>
       </c>
       <c r="B3484">
-        <v>0.133997354154663</v>
+        <v>0.1339973541546629</v>
       </c>
     </row>
     <row r="3485" spans="1:2">
@@ -28991,7 +28991,7 @@
         <v>3581</v>
       </c>
       <c r="B3581">
-        <v>0.1856783803253206</v>
+        <v>0.1856783803253205</v>
       </c>
     </row>
     <row r="3582" spans="1:2">
@@ -30911,7 +30911,7 @@
         <v>3821</v>
       </c>
       <c r="B3821">
-        <v>19.76321618502396</v>
+        <v>19.76321618502395</v>
       </c>
     </row>
     <row r="3822" spans="1:2">
@@ -42223,7 +42223,7 @@
         <v>5235</v>
       </c>
       <c r="B5235">
-        <v>7.492419717585025</v>
+        <v>7.492419717585024</v>
       </c>
     </row>
     <row r="5236" spans="1:2">
@@ -42407,7 +42407,7 @@
         <v>5258</v>
       </c>
       <c r="B5258">
-        <v>0.0434260942246835</v>
+        <v>0.0434260942246834</v>
       </c>
     </row>
     <row r="5259" spans="1:2">
@@ -45487,7 +45487,7 @@
         <v>5643</v>
       </c>
       <c r="B5643">
-        <v>5.613365446103943</v>
+        <v>5.613365446103942</v>
       </c>
     </row>
     <row r="5644" spans="1:2">
@@ -45511,7 +45511,7 @@
         <v>5646</v>
       </c>
       <c r="B5646">
-        <v>7.832528657951516</v>
+        <v>7.832528657951515</v>
       </c>
     </row>
     <row r="5647" spans="1:2">
@@ -46663,7 +46663,7 @@
         <v>5790</v>
       </c>
       <c r="B5790">
-        <v>6.026917988758968</v>
+        <v>6.026917988758967</v>
       </c>
     </row>
     <row r="5791" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>25.8942623138193</v>
+        <v>25.89426231381929</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -47775,7 +47775,7 @@
         <v>5929</v>
       </c>
       <c r="B5929">
-        <v>16.20378049917032</v>
+        <v>16.20378049917031</v>
       </c>
     </row>
     <row r="5930" spans="1:2">
@@ -47783,7 +47783,7 @@
         <v>5930</v>
       </c>
       <c r="B5930">
-        <v>41.36492560977826</v>
+        <v>41.36492560977825</v>
       </c>
     </row>
     <row r="5931" spans="1:2">
@@ -49927,7 +49927,7 @@
         <v>6198</v>
       </c>
       <c r="B6198">
-        <v>0.8386755299163986</v>
+        <v>0.8386755299163985</v>
       </c>
     </row>
     <row r="6199" spans="1:2">
@@ -50119,7 +50119,7 @@
         <v>6222</v>
       </c>
       <c r="B6222">
-        <v>0.0777617109721694</v>
+        <v>0.0777617109721693</v>
       </c>
     </row>
     <row r="6223" spans="1:2">
@@ -51047,7 +51047,7 @@
         <v>6338</v>
       </c>
       <c r="B6338">
-        <v>66.62383921888363</v>
+        <v>66.62383921888362</v>
       </c>
     </row>
     <row r="6339" spans="1:2">
@@ -51087,7 +51087,7 @@
         <v>6343</v>
       </c>
       <c r="B6343">
-        <v>4.482169851078883</v>
+        <v>4.482169851078882</v>
       </c>
     </row>
     <row r="6344" spans="1:2">
@@ -51591,7 +51591,7 @@
         <v>6406</v>
       </c>
       <c r="B6406">
-        <v>4.808182074485764</v>
+        <v>4.808182074485763</v>
       </c>
     </row>
     <row r="6407" spans="1:2">
@@ -51807,7 +51807,7 @@
         <v>6433</v>
       </c>
       <c r="B6433">
-        <v>6.489413394870437</v>
+        <v>6.489413394870436</v>
       </c>
     </row>
     <row r="6434" spans="1:2">
@@ -51999,7 +51999,7 @@
         <v>6457</v>
       </c>
       <c r="B6457">
-        <v>19.64288121654961</v>
+        <v>19.6428812165496</v>
       </c>
     </row>
     <row r="6458" spans="1:2">
@@ -52199,7 +52199,7 @@
         <v>6482</v>
       </c>
       <c r="B6482">
-        <v>0.8524498687334818</v>
+        <v>0.8524498687334817</v>
       </c>
     </row>
     <row r="6483" spans="1:2">
@@ -52207,7 +52207,7 @@
         <v>6483</v>
       </c>
       <c r="B6483">
-        <v>1.638574830707515</v>
+        <v>1.638574830707514</v>
       </c>
     </row>
     <row r="6484" spans="1:2">
@@ -52407,7 +52407,7 @@
         <v>6508</v>
       </c>
       <c r="B6508">
-        <v>0.6956715166015952</v>
+        <v>0.6956715166015951</v>
       </c>
     </row>
     <row r="6509" spans="1:2">
@@ -52423,7 +52423,7 @@
         <v>6510</v>
       </c>
       <c r="B6510">
-        <v>0.7993424658176594</v>
+        <v>0.7993424658176593</v>
       </c>
     </row>
     <row r="6511" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>0.0556691368647612</v>
+        <v>0.0556691368647611</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -52799,7 +52799,7 @@
         <v>6557</v>
       </c>
       <c r="B6557">
-        <v>39.88227922519052</v>
+        <v>39.88227922519051</v>
       </c>
     </row>
     <row r="6558" spans="1:2">
@@ -52951,7 +52951,7 @@
         <v>6576</v>
       </c>
       <c r="B6576">
-        <v>29.70773197598459</v>
+        <v>29.70773197598458</v>
       </c>
     </row>
     <row r="6577" spans="1:2">
@@ -52999,7 +52999,7 @@
         <v>6582</v>
       </c>
       <c r="B6582">
-        <v>23.53802977718982</v>
+        <v>23.53802977718981</v>
       </c>
     </row>
     <row r="6583" spans="1:2">
@@ -53007,7 +53007,7 @@
         <v>6583</v>
       </c>
       <c r="B6583">
-        <v>0.6279867602227576</v>
+        <v>0.6279867602227575</v>
       </c>
     </row>
     <row r="6584" spans="1:2">
@@ -53167,7 +53167,7 @@
         <v>6603</v>
       </c>
       <c r="B6603">
-        <v>0.5924489660746828</v>
+        <v>0.5924489660746827</v>
       </c>
     </row>
     <row r="6604" spans="1:2">
@@ -53887,7 +53887,7 @@
         <v>6693</v>
       </c>
       <c r="B6693">
-        <v>0.3135039514768143</v>
+        <v>0.3135039514768142</v>
       </c>
     </row>
     <row r="6694" spans="1:2">
@@ -53927,7 +53927,7 @@
         <v>6698</v>
       </c>
       <c r="B6698">
-        <v>74.4810737653943</v>
+        <v>74.48107376539429</v>
       </c>
     </row>
     <row r="6699" spans="1:2">
@@ -54063,7 +54063,7 @@
         <v>6715</v>
       </c>
       <c r="B6715">
-        <v>3.186561403364808</v>
+        <v>3.186561403364807</v>
       </c>
     </row>
     <row r="6716" spans="1:2">
@@ -54079,7 +54079,7 @@
         <v>6717</v>
       </c>
       <c r="B6717">
-        <v>28.65455189145118</v>
+        <v>28.65455189145117</v>
       </c>
     </row>
     <row r="6718" spans="1:2">
@@ -54319,7 +54319,7 @@
         <v>6747</v>
       </c>
       <c r="B6747">
-        <v>198.1869453264255</v>
+        <v>198.1869453264254</v>
       </c>
     </row>
     <row r="6748" spans="1:2">
@@ -54543,7 +54543,7 @@
         <v>6775</v>
       </c>
       <c r="B6775">
-        <v>7.90664632362897</v>
+        <v>7.906646323628969</v>
       </c>
     </row>
     <row r="6776" spans="1:2">
@@ -54719,7 +54719,7 @@
         <v>6797</v>
       </c>
       <c r="B6797">
-        <v>37.59984197609596</v>
+        <v>37.59984197609595</v>
       </c>
     </row>
     <row r="6798" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>8.268032221402276</v>
+        <v>8.268032221402274</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55671,7 +55671,7 @@
         <v>6916</v>
       </c>
       <c r="B6916">
-        <v>45.05410384444728</v>
+        <v>45.05410384444727</v>
       </c>
     </row>
     <row r="6917" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>72.22589212289525</v>
+        <v>72.22589212289523</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56207,7 +56207,7 @@
         <v>6983</v>
       </c>
       <c r="B6983">
-        <v>85.5474361852467</v>
+        <v>85.54743618524668</v>
       </c>
     </row>
     <row r="6984" spans="1:2">
@@ -56287,7 +56287,7 @@
         <v>6993</v>
       </c>
       <c r="B6993">
-        <v>8.970054587411662</v>
+        <v>8.97005458741166</v>
       </c>
     </row>
     <row r="6994" spans="1:2">
@@ -56303,7 +56303,7 @@
         <v>6995</v>
       </c>
       <c r="B6995">
-        <v>1.468584836152775</v>
+        <v>1.468584836152774</v>
       </c>
     </row>
     <row r="6996" spans="1:2">
@@ -56423,7 +56423,7 @@
         <v>7010</v>
       </c>
       <c r="B7010">
-        <v>49.74206817887416</v>
+        <v>49.74206817887415</v>
       </c>
     </row>
     <row r="7011" spans="1:2">
@@ -56583,7 +56583,7 @@
         <v>7030</v>
       </c>
       <c r="B7030">
-        <v>0.2152633155361061</v>
+        <v>0.215263315536106</v>
       </c>
     </row>
     <row r="7031" spans="1:2">
@@ -56623,7 +56623,7 @@
         <v>7035</v>
       </c>
       <c r="B7035">
-        <v>35.82910676050411</v>
+        <v>35.8291067605041</v>
       </c>
     </row>
     <row r="7036" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>16.44087496944735</v>
+        <v>16.44087496944734</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>12.82027535782509</v>
+        <v>12.82027535782508</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -57007,7 +57007,7 @@
         <v>7083</v>
       </c>
       <c r="B7083">
-        <v>7.947559040626095</v>
+        <v>7.947559040626094</v>
       </c>
     </row>
     <row r="7084" spans="1:2">
@@ -57047,7 +57047,7 @@
         <v>7088</v>
       </c>
       <c r="B7088">
-        <v>0.5280085060938262</v>
+        <v>0.5280085060938261</v>
       </c>
     </row>
     <row r="7089" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>9.04824594052651</v>
+        <v>9.048245940526508</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57983,7 +57983,7 @@
         <v>7205</v>
       </c>
       <c r="B7205">
-        <v>173.3878601769798</v>
+        <v>173.3878601769797</v>
       </c>
     </row>
     <row r="7206" spans="1:2">
@@ -58191,7 +58191,7 @@
         <v>7231</v>
       </c>
       <c r="B7231">
-        <v>64.20834771823682</v>
+        <v>64.20834771823681</v>
       </c>
     </row>
     <row r="7232" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>3.998954322534057</v>
+        <v>3.998954322534056</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58327,7 +58327,7 @@
         <v>7248</v>
       </c>
       <c r="B7248">
-        <v>91.84348130880838</v>
+        <v>91.84348130880836</v>
       </c>
     </row>
     <row r="7249" spans="1:2">
@@ -58391,7 +58391,7 @@
         <v>7256</v>
       </c>
       <c r="B7256">
-        <v>6.893089443522574</v>
+        <v>6.893089443522573</v>
       </c>
     </row>
     <row r="7257" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>91.33353770153764</v>
+        <v>91.33353770153762</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58911,7 +58911,7 @@
         <v>7321</v>
       </c>
       <c r="B7321">
-        <v>119.3449745057504</v>
+        <v>119.3449745057503</v>
       </c>
     </row>
     <row r="7322" spans="1:2">
@@ -58983,7 +58983,7 @@
         <v>7330</v>
       </c>
       <c r="B7330">
-        <v>6.486570605795421</v>
+        <v>6.48657060579542</v>
       </c>
     </row>
     <row r="7331" spans="1:2">
@@ -58999,7 +58999,7 @@
         <v>7332</v>
       </c>
       <c r="B7332">
-        <v>0.7077724197879222</v>
+        <v>0.707772419787922</v>
       </c>
     </row>
     <row r="7333" spans="1:2">
@@ -59079,7 +59079,7 @@
         <v>7342</v>
       </c>
       <c r="B7342">
-        <v>20.27896259886019</v>
+        <v>20.27896259886018</v>
       </c>
     </row>
     <row r="7343" spans="1:2">
@@ -59303,7 +59303,7 @@
         <v>7370</v>
       </c>
       <c r="B7370">
-        <v>45.05908605210452</v>
+        <v>45.05908605210451</v>
       </c>
     </row>
     <row r="7371" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>56.15651400205502</v>
+        <v>56.15651400205501</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>39.15106698373046</v>
+        <v>39.15106698373045</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>2.021055981843664</v>
+        <v>2.021055981843663</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59575,7 +59575,7 @@
         <v>7404</v>
       </c>
       <c r="B7404">
-        <v>0.7365051044182804</v>
+        <v>0.7365051044182803</v>
       </c>
     </row>
     <row r="7405" spans="1:2">
@@ -59647,7 +59647,7 @@
         <v>7413</v>
       </c>
       <c r="B7413">
-        <v>31.94445014304798</v>
+        <v>31.94445014304797</v>
       </c>
     </row>
     <row r="7414" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>52.95441983364116</v>
+        <v>52.95441983364115</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>64.30769880034302</v>
+        <v>64.307698800343</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -59903,7 +59903,7 @@
         <v>7445</v>
       </c>
       <c r="B7445">
-        <v>204.7619940787928</v>
+        <v>204.7619940787927</v>
       </c>
     </row>
     <row r="7446" spans="1:2">
@@ -59927,7 +59927,7 @@
         <v>7448</v>
       </c>
       <c r="B7448">
-        <v>15.37040369363292</v>
+        <v>15.37040369363291</v>
       </c>
     </row>
     <row r="7449" spans="1:2">
@@ -59943,7 +59943,7 @@
         <v>7450</v>
       </c>
       <c r="B7450">
-        <v>16.0086538016296</v>
+        <v>16.00865380162959</v>
       </c>
     </row>
     <row r="7451" spans="1:2">
@@ -60143,7 +60143,7 @@
         <v>7475</v>
       </c>
       <c r="B7475">
-        <v>6.655555366687554</v>
+        <v>6.655555366687553</v>
       </c>
     </row>
     <row r="7476" spans="1:2">
@@ -60263,7 +60263,7 @@
         <v>7490</v>
       </c>
       <c r="B7490">
-        <v>30.82491877536164</v>
+        <v>30.82491877536163</v>
       </c>
     </row>
     <row r="7491" spans="1:2">
@@ -60831,7 +60831,7 @@
         <v>7561</v>
       </c>
       <c r="B7561">
-        <v>85.83083587963222</v>
+        <v>85.8308358796322</v>
       </c>
     </row>
     <row r="7562" spans="1:2">
@@ -60895,7 +60895,7 @@
         <v>7569</v>
       </c>
       <c r="B7569">
-        <v>10.25528832035713</v>
+        <v>10.25528832035712</v>
       </c>
     </row>
     <row r="7570" spans="1:2">
@@ -61023,7 +61023,7 @@
         <v>7585</v>
       </c>
       <c r="B7585">
-        <v>151.7082231630454</v>
+        <v>151.7082231630453</v>
       </c>
     </row>
     <row r="7586" spans="1:2">
@@ -61215,7 +61215,7 @@
         <v>7609</v>
       </c>
       <c r="B7609">
-        <v>80.69242135878285</v>
+        <v>80.69242135878284</v>
       </c>
     </row>
     <row r="7610" spans="1:2">
@@ -61239,7 +61239,7 @@
         <v>7612</v>
       </c>
       <c r="B7612">
-        <v>96.78260752336804</v>
+        <v>96.782607523368</v>
       </c>
     </row>
     <row r="7613" spans="1:2">
@@ -61479,7 +61479,7 @@
         <v>7642</v>
       </c>
       <c r="B7642">
-        <v>25.69708411900795</v>
+        <v>25.69708411900794</v>
       </c>
     </row>
     <row r="7643" spans="1:2">
@@ -61791,7 +61791,7 @@
         <v>7681</v>
       </c>
       <c r="B7681">
-        <v>125.2436153008873</v>
+        <v>125.2436153008872</v>
       </c>
     </row>
     <row r="7682" spans="1:2">
@@ -61847,7 +61847,7 @@
         <v>7688</v>
       </c>
       <c r="B7688">
-        <v>26.61993551264866</v>
+        <v>26.61993551264865</v>
       </c>
     </row>
     <row r="7689" spans="1:2">
@@ -61871,7 +61871,7 @@
         <v>7691</v>
       </c>
       <c r="B7691">
-        <v>5.211477130787641</v>
+        <v>5.21147713078764</v>
       </c>
     </row>
     <row r="7692" spans="1:2">
@@ -61887,7 +61887,7 @@
         <v>7693</v>
       </c>
       <c r="B7693">
-        <v>1.657272762974109</v>
+        <v>1.657272762974108</v>
       </c>
     </row>
     <row r="7694" spans="1:2">
@@ -62007,7 +62007,7 @@
         <v>7708</v>
       </c>
       <c r="B7708">
-        <v>228.7179138500098</v>
+        <v>228.7179138500097</v>
       </c>
     </row>
     <row r="7709" spans="1:2">
@@ -62311,7 +62311,7 @@
         <v>7746</v>
       </c>
       <c r="B7746">
-        <v>163.7355655186684</v>
+        <v>163.7355655186683</v>
       </c>
     </row>
     <row r="7747" spans="1:2">
@@ -62359,7 +62359,7 @@
         <v>7752</v>
       </c>
       <c r="B7752">
-        <v>270.8993353734986</v>
+        <v>270.8993353734985</v>
       </c>
     </row>
     <row r="7753" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>78.1544261639756</v>
+        <v>78.15442616397559</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62615,7 +62615,7 @@
         <v>7784</v>
       </c>
       <c r="B7784">
-        <v>102.184492907974</v>
+        <v>102.1844929079739</v>
       </c>
     </row>
     <row r="7785" spans="1:2">
@@ -62783,7 +62783,7 @@
         <v>7805</v>
       </c>
       <c r="B7805">
-        <v>327.7823724803951</v>
+        <v>327.782372480395</v>
       </c>
     </row>
     <row r="7806" spans="1:2">
@@ -62799,7 +62799,7 @@
         <v>7807</v>
       </c>
       <c r="B7807">
-        <v>330.1855549974181</v>
+        <v>330.185554997418</v>
       </c>
     </row>
     <row r="7808" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>104.956358791633</v>
+        <v>104.9563587916329</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62839,7 +62839,7 @@
         <v>7812</v>
       </c>
       <c r="B7812">
-        <v>77.92260697239448</v>
+        <v>77.92260697239446</v>
       </c>
     </row>
     <row r="7813" spans="1:2">
@@ -62943,7 +62943,7 @@
         <v>7825</v>
       </c>
       <c r="B7825">
-        <v>277.5080872953119</v>
+        <v>277.5080872953118</v>
       </c>
     </row>
     <row r="7826" spans="1:2">
@@ -63023,7 +63023,7 @@
         <v>7835</v>
       </c>
       <c r="B7835">
-        <v>91.6567950571811</v>
+        <v>91.65679505718109</v>
       </c>
     </row>
     <row r="7836" spans="1:2">
@@ -63175,7 +63175,7 @@
         <v>7854</v>
       </c>
       <c r="B7854">
-        <v>328.4154059239036</v>
+        <v>328.4154059239035</v>
       </c>
     </row>
     <row r="7855" spans="1:2">
@@ -63239,7 +63239,7 @@
         <v>7862</v>
       </c>
       <c r="B7862">
-        <v>35.70660306634367</v>
+        <v>35.70660306634366</v>
       </c>
     </row>
     <row r="7863" spans="1:2">
@@ -63247,7 +63247,7 @@
         <v>7863</v>
       </c>
       <c r="B7863">
-        <v>31.02098330022608</v>
+        <v>31.02098330022607</v>
       </c>
     </row>
     <row r="7864" spans="1:2">
@@ -63263,7 +63263,7 @@
         <v>7865</v>
       </c>
       <c r="B7865">
-        <v>61.33888917870359</v>
+        <v>61.33888917870358</v>
       </c>
     </row>
     <row r="7866" spans="1:2">
@@ -63279,7 +63279,7 @@
         <v>7867</v>
       </c>
       <c r="B7867">
-        <v>251.0768895315612</v>
+        <v>251.0768895315611</v>
       </c>
     </row>
     <row r="7868" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>268.2742980802089</v>
+        <v>268.2742980802088</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>20.238284338694</v>
+        <v>20.23828433869399</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63655,7 +63655,7 @@
         <v>7914</v>
       </c>
       <c r="B7914">
-        <v>8.901886263819033</v>
+        <v>8.901886263819032</v>
       </c>
     </row>
     <row r="7915" spans="1:2">
@@ -63695,7 +63695,7 @@
         <v>7919</v>
       </c>
       <c r="B7919">
-        <v>85.78189301617577</v>
+        <v>85.78189301617576</v>
       </c>
     </row>
     <row r="7920" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>6.950560674204064</v>
+        <v>6.950560674204063</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>53.12791788852868</v>
+        <v>53.12791788852867</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>17.3945867434591</v>
+        <v>17.39458674345909</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64191,7 +64191,7 @@
         <v>7981</v>
       </c>
       <c r="B7981">
-        <v>15.60110921526713</v>
+        <v>15.60110921526712</v>
       </c>
     </row>
     <row r="7982" spans="1:2">
@@ -64367,7 +64367,7 @@
         <v>8003</v>
       </c>
       <c r="B8003">
-        <v>30.69596751835065</v>
+        <v>30.69596751835064</v>
       </c>
     </row>
     <row r="8004" spans="1:2">
@@ -64415,7 +64415,7 @@
         <v>8009</v>
       </c>
       <c r="B8009">
-        <v>52.51100335214655</v>
+        <v>52.51100335214654</v>
       </c>
     </row>
     <row r="8010" spans="1:2">
@@ -64447,7 +64447,7 @@
         <v>8013</v>
       </c>
       <c r="B8013">
-        <v>162.7619835282354</v>
+        <v>162.7619835282353</v>
       </c>
     </row>
     <row r="8014" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>63.8332167887503</v>
+        <v>63.83321678875029</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>6.000570902383313</v>
+        <v>6.000570902383312</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -64727,7 +64727,7 @@
         <v>8048</v>
       </c>
       <c r="B8048">
-        <v>25.48827100396174</v>
+        <v>25.48827100396173</v>
       </c>
     </row>
     <row r="8049" spans="1:2">
@@ -64751,7 +64751,7 @@
         <v>8051</v>
       </c>
       <c r="B8051">
-        <v>3.822525557259927</v>
+        <v>3.822525557259926</v>
       </c>
     </row>
     <row r="8052" spans="1:2">
@@ -65279,7 +65279,7 @@
         <v>8117</v>
       </c>
       <c r="B8117">
-        <v>6.315827418671322</v>
+        <v>6.315827418671321</v>
       </c>
     </row>
     <row r="8118" spans="1:2">
@@ -65287,7 +65287,7 @@
         <v>8118</v>
       </c>
       <c r="B8118">
-        <v>8.988312913120264</v>
+        <v>8.988312913120263</v>
       </c>
     </row>
     <row r="8119" spans="1:2">
@@ -65831,7 +65831,7 @@
         <v>8186</v>
       </c>
       <c r="B8186">
-        <v>0.487242324616033</v>
+        <v>0.4872423246160329</v>
       </c>
     </row>
     <row r="8187" spans="1:2">
@@ -65879,7 +65879,7 @@
         <v>8192</v>
       </c>
       <c r="B8192">
-        <v>1.169880972128359</v>
+        <v>1.169880972128358</v>
       </c>
     </row>
     <row r="8193" spans="1:2">
@@ -66007,7 +66007,7 @@
         <v>8208</v>
       </c>
       <c r="B8208">
-        <v>68.27705294797228</v>
+        <v>68.27705294797227</v>
       </c>
     </row>
     <row r="8209" spans="1:2">
@@ -66095,7 +66095,7 @@
         <v>8219</v>
       </c>
       <c r="B8219">
-        <v>7.924640885402777</v>
+        <v>7.924640885402776</v>
       </c>
     </row>
     <row r="8220" spans="1:2">
@@ -66239,7 +66239,7 @@
         <v>8237</v>
       </c>
       <c r="B8237">
-        <v>237.1413616432142</v>
+        <v>237.1413616432141</v>
       </c>
     </row>
     <row r="8238" spans="1:2">
@@ -66335,7 +66335,7 @@
         <v>8249</v>
       </c>
       <c r="B8249">
-        <v>7.855358891863235</v>
+        <v>7.855358891863234</v>
       </c>
     </row>
     <row r="8250" spans="1:2">
@@ -66375,7 +66375,7 @@
         <v>8254</v>
       </c>
       <c r="B8254">
-        <v>66.54236547013578</v>
+        <v>66.54236547013576</v>
       </c>
     </row>
     <row r="8255" spans="1:2">
@@ -66399,7 +66399,7 @@
         <v>8257</v>
       </c>
       <c r="B8257">
-        <v>117.2122965574118</v>
+        <v>117.2122965574117</v>
       </c>
     </row>
     <row r="8258" spans="1:2">
@@ -66503,7 +66503,7 @@
         <v>8270</v>
       </c>
       <c r="B8270">
-        <v>8.807576003577813</v>
+        <v>8.807576003577811</v>
       </c>
     </row>
     <row r="8271" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>173.7738347348968</v>
+        <v>173.7738347348967</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66583,7 +66583,7 @@
         <v>8280</v>
       </c>
       <c r="B8280">
-        <v>182.5431063537216</v>
+        <v>182.5431063537215</v>
       </c>
     </row>
     <row r="8281" spans="1:2">
@@ -66671,7 +66671,7 @@
         <v>8291</v>
       </c>
       <c r="B8291">
-        <v>46.35592539818097</v>
+        <v>46.35592539818096</v>
       </c>
     </row>
     <row r="8292" spans="1:2">
@@ -66711,7 +66711,7 @@
         <v>8296</v>
       </c>
       <c r="B8296">
-        <v>40.59561413329223</v>
+        <v>40.59561413329222</v>
       </c>
     </row>
     <row r="8297" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>71.578791269531</v>
+        <v>71.57879126953098</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -66895,7 +66895,7 @@
         <v>8319</v>
       </c>
       <c r="B8319">
-        <v>78.21069580339858</v>
+        <v>78.21069580339856</v>
       </c>
     </row>
     <row r="8320" spans="1:2">
@@ -66975,7 +66975,7 @@
         <v>8329</v>
       </c>
       <c r="B8329">
-        <v>189.0214416633306</v>
+        <v>189.0214416633305</v>
       </c>
     </row>
     <row r="8330" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>225.6922484468701</v>
+        <v>225.69224844687</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67031,7 +67031,7 @@
         <v>8336</v>
       </c>
       <c r="B8336">
-        <v>35.53867336119072</v>
+        <v>35.53867336119071</v>
       </c>
     </row>
     <row r="8337" spans="1:2">
@@ -67127,7 +67127,7 @@
         <v>8348</v>
       </c>
       <c r="B8348">
-        <v>209.9493514630986</v>
+        <v>209.9493514630985</v>
       </c>
     </row>
     <row r="8349" spans="1:2">
@@ -67215,7 +67215,7 @@
         <v>8359</v>
       </c>
       <c r="B8359">
-        <v>304.3015208628481</v>
+        <v>304.301520862848</v>
       </c>
     </row>
     <row r="8360" spans="1:2">
@@ -67239,7 +67239,7 @@
         <v>8362</v>
       </c>
       <c r="B8362">
-        <v>54.93382162875989</v>
+        <v>54.93382162875988</v>
       </c>
     </row>
     <row r="8363" spans="1:2">
@@ -67271,7 +67271,7 @@
         <v>8366</v>
       </c>
       <c r="B8366">
-        <v>13.77322514713632</v>
+        <v>13.77322514713631</v>
       </c>
     </row>
     <row r="8367" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>8.233684295671166</v>
+        <v>8.233684295671164</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67295,7 +67295,7 @@
         <v>8369</v>
       </c>
       <c r="B8369">
-        <v>19.28433810785132</v>
+        <v>19.28433810785131</v>
       </c>
     </row>
     <row r="8370" spans="1:2">
@@ -67415,7 +67415,7 @@
         <v>8384</v>
       </c>
       <c r="B8384">
-        <v>29.19295269657594</v>
+        <v>29.19295269657593</v>
       </c>
     </row>
     <row r="8385" spans="1:2">
@@ -67471,7 +67471,7 @@
         <v>8391</v>
       </c>
       <c r="B8391">
-        <v>7.432369461763315</v>
+        <v>7.432369461763314</v>
       </c>
     </row>
     <row r="8392" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>184.6561485424699</v>
+        <v>184.6561485424698</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67607,7 +67607,7 @@
         <v>8408</v>
       </c>
       <c r="B8408">
-        <v>13.65177650871506</v>
+        <v>13.65177650871505</v>
       </c>
     </row>
     <row r="8409" spans="1:2">
@@ -67751,7 +67751,7 @@
         <v>8426</v>
       </c>
       <c r="B8426">
-        <v>212.5840601006641</v>
+        <v>212.584060100664</v>
       </c>
     </row>
     <row r="8427" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>52.51598555980379</v>
+        <v>52.51598555980378</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>55.35701620858687</v>
+        <v>55.35701620858686</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67831,7 +67831,7 @@
         <v>8436</v>
       </c>
       <c r="B8436">
-        <v>32.82014640656808</v>
+        <v>32.82014640656807</v>
       </c>
     </row>
     <row r="8437" spans="1:2">
@@ -67911,7 +67911,7 @@
         <v>8446</v>
       </c>
       <c r="B8446">
-        <v>167.3511829226334</v>
+        <v>167.3511829226333</v>
       </c>
     </row>
     <row r="8447" spans="1:2">
@@ -68071,7 +68071,7 @@
         <v>8466</v>
       </c>
       <c r="B8466">
-        <v>12.76356611184412</v>
+        <v>12.76356611184411</v>
       </c>
     </row>
     <row r="8467" spans="1:2">
@@ -68103,7 +68103,7 @@
         <v>8470</v>
       </c>
       <c r="B8470">
-        <v>63.36137241650553</v>
+        <v>63.36137241650552</v>
       </c>
     </row>
     <row r="8471" spans="1:2">
@@ -68439,7 +68439,7 @@
         <v>8512</v>
       </c>
       <c r="B8512">
-        <v>14.79850486878917</v>
+        <v>14.79850486878916</v>
       </c>
     </row>
     <row r="8513" spans="1:2">
@@ -68455,7 +68455,7 @@
         <v>8514</v>
       </c>
       <c r="B8514">
-        <v>15.79482917182228</v>
+        <v>15.79482917182227</v>
       </c>
     </row>
     <row r="8515" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>34.9117944094941</v>
+        <v>34.91179440949409</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68823,7 +68823,7 @@
         <v>8560</v>
       </c>
       <c r="B8560">
-        <v>215.8737825096377</v>
+        <v>215.8737825096376</v>
       </c>
     </row>
     <row r="8561" spans="1:2">
@@ -68879,7 +68879,7 @@
         <v>8567</v>
       </c>
       <c r="B8567">
-        <v>315.1979020802769</v>
+        <v>315.1979020802768</v>
       </c>
     </row>
     <row r="8568" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>215.9200877337462</v>
+        <v>215.9200877337461</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -69103,7 +69103,7 @@
         <v>8595</v>
       </c>
       <c r="B8595">
-        <v>310.5087654616954</v>
+        <v>310.5087654616953</v>
       </c>
     </row>
     <row r="8596" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>68.56777941832433</v>
+        <v>68.56777941832432</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
@@ -69207,7 +69207,7 @@
         <v>8608</v>
       </c>
       <c r="B8608">
-        <v>72.03979201334529</v>
+        <v>72.03979201334528</v>
       </c>
     </row>
     <row r="8609" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>117.5572411699162</v>
+        <v>117.5572411699161</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69479,7 +69479,7 @@
         <v>8642</v>
       </c>
       <c r="B8642">
-        <v>323.3687226381552</v>
+        <v>323.3687226381551</v>
       </c>
     </row>
     <row r="8643" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>272.4101165777978</v>
+        <v>272.4101165777977</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>94.05235772719894</v>
+        <v>94.05235772719892</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>79.99432614469153</v>
+        <v>79.99432614469151</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -70095,7 +70095,7 @@
         <v>8719</v>
       </c>
       <c r="B8719">
-        <v>230.120551841043</v>
+        <v>230.1205518410429</v>
       </c>
     </row>
     <row r="8720" spans="1:2">
@@ -70159,7 +70159,7 @@
         <v>8727</v>
       </c>
       <c r="B8727">
-        <v>105.3352996446221</v>
+        <v>105.335299644622</v>
       </c>
     </row>
     <row r="8728" spans="1:2">
@@ -70191,7 +70191,7 @@
         <v>8731</v>
       </c>
       <c r="B8731">
-        <v>357.0074164557044</v>
+        <v>357.0074164557043</v>
       </c>
     </row>
     <row r="8732" spans="1:2">
@@ -70223,7 +70223,7 @@
         <v>8735</v>
       </c>
       <c r="B8735">
-        <v>323.1899493045718</v>
+        <v>323.1899493045717</v>
       </c>
     </row>
     <row r="8736" spans="1:2">
@@ -70271,7 +70271,7 @@
         <v>8741</v>
       </c>
       <c r="B8741">
-        <v>352.5351524057323</v>
+        <v>352.5351524057322</v>
       </c>
     </row>
     <row r="8742" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>336.3107397054402</v>
+        <v>336.3107397054401</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>249.3958340537997</v>
+        <v>249.3958340537996</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
@@ -70399,7 +70399,7 @@
         <v>8757</v>
       </c>
       <c r="B8757">
-        <v>336.5422658259827</v>
+        <v>336.5422658259826</v>
       </c>
     </row>
     <row r="8758" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>347.6379353497012</v>
+        <v>347.6379353497011</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
